--- a/wip/3.0副属性.xlsx
+++ b/wip/3.0副属性.xlsx
@@ -205,7 +205,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>708</t>
+    <t>793</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,7 +600,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.375" defaultRowHeight="63" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -748,7 +748,7 @@
       </c>
       <c r="H10" s="7">
         <f>(H9-354)*0.0233+5</f>
-        <v>13.248200000000001</v>
+        <v>15.2287</v>
       </c>
       <c r="I10" s="7">
         <f>(I9-354)*0.0233+5</f>
@@ -779,7 +779,7 @@
       </c>
       <c r="H11" s="7">
         <f>(H9-354)*0.0233+145</f>
-        <v>153.2482</v>
+        <v>155.2287</v>
       </c>
       <c r="I11" s="8">
         <f>2.5-(I9-354)/2650</f>
@@ -799,7 +799,7 @@
       </c>
       <c r="H12" s="8">
         <f>2.5-(H9-354)/2650</f>
-        <v>2.3664150943396227</v>
+        <v>2.3343396226415094</v>
       </c>
       <c r="I12" s="7">
         <f>(I9-354)*0.0233+145</f>
@@ -818,7 +818,7 @@
       </c>
       <c r="H13" s="7">
         <f>(H9-354)*0.0138+100</f>
-        <v>104.8852</v>
+        <v>106.0582</v>
       </c>
       <c r="I13" s="7">
         <f>(I9-354)*0.0138+100</f>
